--- a/汽柴煤油2.0/eta/山东丙烯主流价_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/山东丙烯主流价_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>6259.3688</v>
+        <v>6653.9212</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6196.1538</v>
+        <v>6173</v>
       </c>
       <c r="C3" t="n">
-        <v>6153.9163</v>
+        <v>6229.3142</v>
       </c>
     </row>
     <row r="4">
